--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.17699362819391</v>
+        <v>2.955187333333333</v>
       </c>
       <c r="H2">
-        <v>2.17699362819391</v>
+        <v>8.865562000000001</v>
       </c>
       <c r="I2">
-        <v>0.0113307589750979</v>
+        <v>0.0151950616208272</v>
       </c>
       <c r="J2">
-        <v>0.0113307589750979</v>
+        <v>0.0151950616208272</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N2">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q2">
-        <v>21.72566280855741</v>
+        <v>50.73031201328666</v>
       </c>
       <c r="R2">
-        <v>21.72566280855741</v>
+        <v>456.57280811958</v>
       </c>
       <c r="S2">
-        <v>0.0003797829283415855</v>
+        <v>0.0008514482838311087</v>
       </c>
       <c r="T2">
-        <v>0.0003797829283415855</v>
+        <v>0.0008514482838311088</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.17699362819391</v>
+        <v>2.955187333333333</v>
       </c>
       <c r="H3">
-        <v>2.17699362819391</v>
+        <v>8.865562000000001</v>
       </c>
       <c r="I3">
-        <v>0.0113307589750979</v>
+        <v>0.0151950616208272</v>
       </c>
       <c r="J3">
-        <v>0.0113307589750979</v>
+        <v>0.0151950616208272</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N3">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q3">
-        <v>556.5806529906698</v>
+        <v>757.8409628265324</v>
       </c>
       <c r="R3">
-        <v>556.5806529906698</v>
+        <v>6820.568665438792</v>
       </c>
       <c r="S3">
-        <v>0.009729499721767253</v>
+        <v>0.01271946419423887</v>
       </c>
       <c r="T3">
-        <v>0.009729499721767253</v>
+        <v>0.01271946419423888</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.17699362819391</v>
+        <v>2.955187333333333</v>
       </c>
       <c r="H4">
-        <v>2.17699362819391</v>
+        <v>8.865562000000001</v>
       </c>
       <c r="I4">
-        <v>0.0113307589750979</v>
+        <v>0.0151950616208272</v>
       </c>
       <c r="J4">
-        <v>0.0113307589750979</v>
+        <v>0.0151950616208272</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N4">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q4">
-        <v>69.87513335902213</v>
+        <v>96.76875781281021</v>
       </c>
       <c r="R4">
-        <v>69.87513335902213</v>
+        <v>870.918820315292</v>
       </c>
       <c r="S4">
-        <v>0.001221476324989061</v>
+        <v>0.001624149142757212</v>
       </c>
       <c r="T4">
-        <v>0.001221476324989061</v>
+        <v>0.001624149142757213</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>166.629366142964</v>
+        <v>167.1121116666667</v>
       </c>
       <c r="H5">
-        <v>166.629366142964</v>
+        <v>501.336335</v>
       </c>
       <c r="I5">
-        <v>0.8672681267816239</v>
+        <v>0.8592615451885246</v>
       </c>
       <c r="J5">
-        <v>0.8672681267816239</v>
+        <v>0.8592615451885246</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N5">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q5">
-        <v>1662.904923533948</v>
+        <v>2868.735078289183</v>
       </c>
       <c r="R5">
-        <v>1662.904923533948</v>
+        <v>25818.61570460265</v>
       </c>
       <c r="S5">
-        <v>0.02906898201350194</v>
+        <v>0.04814832517757224</v>
       </c>
       <c r="T5">
-        <v>0.02906898201350194</v>
+        <v>0.04814832517757224</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>166.629366142964</v>
+        <v>167.1121116666667</v>
       </c>
       <c r="H6">
-        <v>166.629366142964</v>
+        <v>501.336335</v>
       </c>
       <c r="I6">
-        <v>0.8672681267816239</v>
+        <v>0.8592615451885246</v>
       </c>
       <c r="J6">
-        <v>0.8672681267816239</v>
+        <v>0.8592615451885246</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N6">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q6">
-        <v>42601.26452102389</v>
+        <v>42854.94938914476</v>
       </c>
       <c r="R6">
-        <v>42601.26452102389</v>
+        <v>385694.5445023028</v>
       </c>
       <c r="S6">
-        <v>0.7447060710376208</v>
+        <v>0.7192696370860014</v>
       </c>
       <c r="T6">
-        <v>0.7447060710376208</v>
+        <v>0.7192696370860014</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>166.629366142964</v>
+        <v>167.1121116666667</v>
       </c>
       <c r="H7">
-        <v>166.629366142964</v>
+        <v>501.336335</v>
       </c>
       <c r="I7">
-        <v>0.8672681267816239</v>
+        <v>0.8592615451885246</v>
       </c>
       <c r="J7">
-        <v>0.8672681267816239</v>
+        <v>0.8592615451885246</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N7">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O7">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P7">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q7">
-        <v>5348.315690950586</v>
+        <v>5472.1510474324</v>
       </c>
       <c r="R7">
-        <v>5348.315690950586</v>
+        <v>49249.35942689161</v>
       </c>
       <c r="S7">
-        <v>0.09349307373050114</v>
+        <v>0.09184358292495079</v>
       </c>
       <c r="T7">
-        <v>0.09349307373050114</v>
+        <v>0.09184358292495079</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.3249557901724</v>
+        <v>24.41610666666667</v>
       </c>
       <c r="H8">
-        <v>23.3249557901724</v>
+        <v>73.24832000000001</v>
       </c>
       <c r="I8">
-        <v>0.1214011142432782</v>
+        <v>0.1255433931906482</v>
       </c>
       <c r="J8">
-        <v>0.1214011142432782</v>
+        <v>0.1255433931906482</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N8">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O8">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P8">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q8">
-        <v>232.7751987690507</v>
+        <v>419.1398275765333</v>
       </c>
       <c r="R8">
-        <v>232.7751987690507</v>
+        <v>3772.2584481888</v>
       </c>
       <c r="S8">
-        <v>0.004069107000914315</v>
+        <v>0.007034766251424542</v>
       </c>
       <c r="T8">
-        <v>0.004069107000914315</v>
+        <v>0.007034766251424543</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.3249557901724</v>
+        <v>24.41610666666667</v>
       </c>
       <c r="H9">
-        <v>23.3249557901724</v>
+        <v>73.24832000000001</v>
       </c>
       <c r="I9">
-        <v>0.1214011142432782</v>
+        <v>0.1255433931906482</v>
       </c>
       <c r="J9">
-        <v>0.1214011142432782</v>
+        <v>0.1255433931906482</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N9">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P9">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q9">
-        <v>5963.370290359114</v>
+        <v>6261.371513077902</v>
       </c>
       <c r="R9">
-        <v>5963.370290359114</v>
+        <v>56352.34361770112</v>
       </c>
       <c r="S9">
-        <v>0.1042447474037814</v>
+        <v>0.1050897149586401</v>
       </c>
       <c r="T9">
-        <v>0.1042447474037814</v>
+        <v>0.1050897149586401</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.3249557901724</v>
+        <v>24.41610666666667</v>
       </c>
       <c r="H10">
-        <v>23.3249557901724</v>
+        <v>73.24832000000001</v>
       </c>
       <c r="I10">
-        <v>0.1214011142432782</v>
+        <v>0.1255433931906482</v>
       </c>
       <c r="J10">
-        <v>0.1214011142432782</v>
+        <v>0.1255433931906482</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N10">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O10">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P10">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q10">
-        <v>748.6629153727677</v>
+        <v>799.514902526791</v>
       </c>
       <c r="R10">
-        <v>748.6629153727677</v>
+        <v>7195.63412274112</v>
       </c>
       <c r="S10">
-        <v>0.01308725983858248</v>
+        <v>0.01341891198058352</v>
       </c>
       <c r="T10">
-        <v>0.01308725983858248</v>
+        <v>0.01341891198058352</v>
       </c>
     </row>
   </sheetData>
